--- a/src/output_series.xlsx
+++ b/src/output_series.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="xero" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="parking" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cleaning" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="bookings" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J15"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,140 +425,116 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vehicle Reg </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Vehicle Reg</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TGB Cost (No VAT) </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vehicle Reg</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TGB Cost (Inc VAT) </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Vehicle Reg</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Days offline</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>col_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>col_2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>col_3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>col_4</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FG20VLN</t>
+        </is>
+      </c>
+      <c r="C2">
+        <f>summary!A2</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>- (SUMIF(summary!:A:A, summary!C2, summary!:C:C))</f>
+        <v/>
+      </c>
+      <c r="F2">
+        <f>summary!A2</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>(summary!H2) - ((summary!H2) / (1.2))</f>
+        <v/>
+      </c>
+      <c r="H2">
+        <f>- (SUMIF(summary!:A:A, summary!F2, summary!:F:F))</f>
+        <v/>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>FG20VLN</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FH19VRE</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>summary!A3</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>- (SUMIF(summary!:A:A, summary!C3, summary!:C:C))</f>
+        <v/>
+      </c>
+      <c r="F3">
+        <f>summary!A3</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>(summary!H3) - ((summary!H3) / (1.2))</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>- (SUMIF(summary!:A:A, summary!F3, summary!:F:F))</f>
+        <v/>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>FH19VRE</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <f>(Sheet1!B3) + (Sheet1!C3)</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>SUM(Sheet1!B3:D3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f>(Sheet1!B3:C3) + (Sheet1!C3:D3)</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>SUM(Sheet1!B3:E3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>horizontal_column_1</t>
-        </is>
-      </c>
-      <c r="C12">
-        <f>Sheet1!B3</f>
-        <v/>
-      </c>
-      <c r="D12">
-        <f>Sheet1!C3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>horizontal_column_2</t>
-        </is>
-      </c>
-      <c r="C13">
-        <f>Sheet1!B3:C3</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>Sheet1!C3:D3</f>
-        <v/>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>col_1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>col_2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>col_3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>col_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f>(Sheet1!G14) + (Sheet1!H14)</f>
-        <v/>
-      </c>
-      <c r="J14">
-        <f>SUM(Sheet1!G14:I14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <f>(Sheet1!G14:H14) + (Sheet1!H14:I14)</f>
-        <v/>
-      </c>
-      <c r="J15">
-        <f>SUM(Sheet1!G14:J14)</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -570,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,77 +556,106 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>UnitAmount</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TaxAmount</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AccountCode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>MRG</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>horizontal_col_1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B2">
+        <f>CONCATENATE(xero!A2, " Parking Recharge")</f>
+        <v/>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
+      <c r="D2">
+        <f>- (ROUND((xero!D2) * (1.2), 2))</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>ROUND((xero!D2) / (6), 2)</f>
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G2">
+        <f>(xero!D2) &gt; (0)</f>
+        <v/>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>horizontal_col_2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
+      <c r="A3" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B3">
+        <f>CONCATENATE(xero!A3, " Parking Recharge")</f>
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>horizontal_col_3</t>
-        </is>
-      </c>
-      <c r="B4">
-        <f>(Sheet2!B2) + (Sheet2!B3)</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>(Sheet2!B2:B3) + (Sheet2!B3:B4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>col1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>col2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <f>Sheet2!B2</f>
-        <v/>
-      </c>
-      <c r="B11">
-        <f>Sheet2!B2:B3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <f>Sheet2!B3</f>
-        <v/>
-      </c>
-      <c r="B12">
-        <f>Sheet2!B3:B4</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>- (ROUND((xero!D3) * (1.2), 2))</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>ROUND((xero!D3) / (6), 2)</f>
+        <v/>
+      </c>
+      <c r="F3" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G3">
+        <f>(xero!D3) &gt; (0)</f>
+        <v/>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,59 +680,248 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>col_1</t>
+          <t>Vehicle Reg</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>col_2</t>
+          <t>Total Parking Cost per month</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>col_3</t>
+          <t>TGB parking cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FG20UGP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <f>(parking!B2) / (2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WV69OLC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <f>(parking!B3) / (2)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>VRM</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TGB Liability</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>col_4</t>
+          <t>Total Cost (Ex VAT)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total Cost (inc VAT)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TGB Cost (Inc VAT)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <f>SUM(Sheet3!B2:C2)</f>
-        <v/>
-      </c>
-      <c r="B2">
-        <f>SUM(Sheet3!C2:D2)</f>
-        <v/>
-      </c>
-      <c r="C2">
-        <f>SUM(Sheet3!D2:E2)</f>
-        <v/>
-      </c>
-      <c r="D2">
-        <f>(Sheet3!A2) * (Sheet3!B2)</f>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FG20VLU</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Inside &amp; Out + Checks</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <f>(cleaning!D2) * (1.2)</f>
+        <v/>
+      </c>
+      <c r="F2">
+        <f>(cleaning!E2) * (cleaning!B2)</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <f>SUM(Sheet3!B2:C2)</f>
-        <v/>
-      </c>
-      <c r="B3">
-        <f>SUM(Sheet3!C2:D2)</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>SUM(Sheet3!D2:E2)</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>(Sheet3!A2:B2) * (Sheet3!B2:C2)</f>
-        <v/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FG20VLK</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Inside &amp; Out + Checks</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <f>(cleaning!D3) * (1.2)</f>
+        <v/>
+      </c>
+      <c r="F3">
+        <f>(cleaning!E3) * (cleaning!B3)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Booking Reference</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Vrm</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nhs Discount</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TGB earnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14545</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FX59-QP36-MT73</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WV69OLC</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14544</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HZ93-YU64-KR64</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WV69OLN</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/output_series.xlsx
+++ b/src/output_series.xlsx
@@ -478,7 +478,7 @@
         <v/>
       </c>
       <c r="D2">
-        <f>- (SUMIF(summary!:A:A, summary!C2, summary!:C:C))</f>
+        <f>- (SUMIF(parking!:A:A, summary!C2, parking!:C:C))</f>
         <v/>
       </c>
       <c r="F2">
@@ -490,7 +490,7 @@
         <v/>
       </c>
       <c r="H2">
-        <f>- (SUMIF(summary!:A:A, summary!F2, summary!:F:F))</f>
+        <f>- (SUMIF(cleaning!:A:A, summary!F2, cleaning!:F:F))</f>
         <v/>
       </c>
       <c r="J2" t="inlineStr">
@@ -513,7 +513,7 @@
         <v/>
       </c>
       <c r="D3">
-        <f>- (SUMIF(summary!:A:A, summary!C3, summary!:C:C))</f>
+        <f>- (SUMIF(parking!:A:A, summary!C3, parking!:C:C))</f>
         <v/>
       </c>
       <c r="F3">
@@ -525,7 +525,7 @@
         <v/>
       </c>
       <c r="H3">
-        <f>- (SUMIF(summary!:A:A, summary!F3, summary!:F:F))</f>
+        <f>- (SUMIF(cleaning!:A:A, summary!F3, cleaning!:F:F))</f>
         <v/>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,14 +603,14 @@
         <v>44681</v>
       </c>
       <c r="B2">
-        <f>CONCATENATE(xero!A2, " Parking Recharge")</f>
+        <f>CONCATENATE(summary!A2, " Parking Recharge")</f>
         <v/>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2">
-        <f>- (ROUND((xero!D2) * (1.2), 2))</f>
+        <f>- (ROUND((summary!D2) * (1.2), 2))</f>
         <v/>
       </c>
       <c r="E2">
@@ -633,14 +633,14 @@
         <v>44681</v>
       </c>
       <c r="B3">
-        <f>CONCATENATE(xero!A3, " Parking Recharge")</f>
+        <f>CONCATENATE(summary!A3, " Parking Recharge")</f>
         <v/>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3">
-        <f>- (ROUND((xero!D3) * (1.2), 2))</f>
+        <f>- (ROUND((summary!D3) * (1.2), 2))</f>
         <v/>
       </c>
       <c r="E3">

--- a/src/output_series.xlsx
+++ b/src/output_series.xlsx
@@ -7,11 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="xero" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="parking" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="cleaning" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="bookings" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="toyota_21_analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="analysis_by_vrm" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="updated_mrgs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,113 +426,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vehicle Reg </t>
+          <t>Created Month</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Revenue after insurance &amp; CDW</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Vehicle Reg</t>
+          <t>Toyota Revenue</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TGB Cost (No VAT) </t>
+          <t>Payment to TGB minus costs</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>50% of Parking Costs</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Vehicle Reg</t>
+          <t>50% of Ad-hoc</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>VAT</t>
+          <t>Total Costs (50%)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TGB Cost (Inc VAT) </t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Vehicle Reg</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Days offline</t>
+          <t>Hiyacar Net</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>net per car</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FG20VLN</t>
-        </is>
-      </c>
-      <c r="C2">
-        <f>summary!A2</f>
-        <v/>
+      <c r="A2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18820.58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11714.5</v>
       </c>
       <c r="D2">
-        <f>- (SUMIF(parking!:A:A, summary!C2, parking!:C:C))</f>
-        <v/>
-      </c>
-      <c r="F2">
-        <f>summary!A2</f>
-        <v/>
+        <f>SUM(toyota_21_analysis!C2, toyota_21_analysis!E2, toyota_21_analysis!F2)</f>
+        <v/>
+      </c>
+      <c r="E2" t="n">
+        <v>-1681.94</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1064.4</v>
       </c>
       <c r="G2">
-        <f>(summary!H2) - ((summary!H2) / (1.2))</f>
+        <f>(- (toyota_21_analysis!F2)) + (- (toyota_21_analysis!E2))</f>
         <v/>
       </c>
       <c r="H2">
-        <f>- (SUMIF(cleaning!:A:A, summary!F2, cleaning!:F:F))</f>
-        <v/>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>FG20VLN</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
+        <f>((toyota_21_analysis!B2) - (toyota_21_analysis!D2)) - (toyota_21_analysis!G2)</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>(toyota_21_analysis!H2) / (51)</f>
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FH19VRE</t>
-        </is>
-      </c>
-      <c r="C3">
-        <f>summary!A3</f>
-        <v/>
+      <c r="A3" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9567.82</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12837.68</v>
       </c>
       <c r="D3">
-        <f>- (SUMIF(parking!:A:A, summary!C3, parking!:C:C))</f>
-        <v/>
-      </c>
-      <c r="F3">
-        <f>summary!A3</f>
-        <v/>
+        <f>SUM(toyota_21_analysis!C3, toyota_21_analysis!E3, toyota_21_analysis!F3)</f>
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v>-1681.94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1220.48</v>
       </c>
       <c r="G3">
-        <f>(summary!H3) - ((summary!H3) / (1.2))</f>
+        <f>(- (toyota_21_analysis!F3)) + (- (toyota_21_analysis!E3))</f>
         <v/>
       </c>
       <c r="H3">
-        <f>- (SUMIF(cleaning!:A:A, summary!F3, cleaning!:F:F))</f>
-        <v/>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>FH19VRE</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
+        <f>((toyota_21_analysis!B3) - (toyota_21_analysis!D3)) - (toyota_21_analysis!G3)</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>(toyota_21_analysis!H3) / (51)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -548,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,103 +558,189 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Vehicles Vrm</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Net Revenue</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Vehicles MRG</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>UnitAmount</t>
+          <t>Vehicles Model</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>TaxAmount</t>
+          <t>Bookings Driver Spend</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>AccountCode</t>
+          <t>Bookings Insurance spend</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bookings CDW Paid</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>MRG</t>
+          <t xml:space="preserve">Hiyacar Net </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>New MRG</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Hiyacar Net</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Col1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Col2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Col3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Col4</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B2">
-        <f>CONCATENATE(summary!A2, " Parking Recharge")</f>
-        <v/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WV69OLN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3544.51</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>- (ROUND((summary!D2) * (1.2), 2))</f>
-        <v/>
-      </c>
-      <c r="E2">
-        <f>ROUND((xero!D2) / (6), 2)</f>
-        <v/>
+        <v>211.2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C-Hr Excel Hev Cvt</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5812.91</v>
       </c>
       <c r="F2" t="n">
-        <v>4010</v>
-      </c>
-      <c r="G2">
-        <f>(xero!D2) &gt; (0)</f>
-        <v/>
-      </c>
-      <c r="H2" t="b">
+        <v>2134.45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>235</v>
+      </c>
+      <c r="H2">
+        <f>IF(((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!C2) * (6)), (analysis_by_vrm!B2) - ((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B2) - ((analysis_by_vrm!C2) * (6)))</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(analysis_by_vrm!D2, updated_mrgs!B:G, 3, False)</f>
+        <v/>
+      </c>
+      <c r="J2">
+        <f>IF(((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!I2) * (6)), (analysis_by_vrm!B2) - ((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B2) - ((analysis_by_vrm!I2) * (6)))</f>
+        <v/>
+      </c>
+      <c r="K2">
+        <f>VLOOKUP(analysis_by_vrm!D2, updated_mrgs!B:K, 5, False)</f>
+        <v/>
+      </c>
+      <c r="L2">
+        <f>IF(((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!K2) * (6)), (analysis_by_vrm!B2) - ((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B2) - ((analysis_by_vrm!K2) * (6)))</f>
+        <v/>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
+      </c>
+      <c r="N2">
+        <f>(analysis_by_vrm!B2) - ((analysis_by_vrm!M2) * (6))</f>
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B3">
-        <f>CONCATENATE(summary!A3, " Parking Recharge")</f>
-        <v/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WM19KFZ</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3489.6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>- (ROUND((summary!D3) * (1.2), 2))</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>ROUND((xero!D3) / (6), 2)</f>
-        <v/>
+        <v>211.2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C-Hr Dynamic Hev Cvt</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5655.61</v>
       </c>
       <c r="F3" t="n">
-        <v>4010</v>
-      </c>
-      <c r="G3">
-        <f>(xero!D3) &gt; (0)</f>
-        <v/>
-      </c>
-      <c r="H3" t="b">
+        <v>2071.39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>166</v>
+      </c>
+      <c r="H3">
+        <f>IF(((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!C3) * (6)), (analysis_by_vrm!B3) - ((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B3) - ((analysis_by_vrm!C3) * (6)))</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(analysis_by_vrm!D3, updated_mrgs!B:G, 3, False)</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>IF(((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!I3) * (6)), (analysis_by_vrm!B3) - ((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B3) - ((analysis_by_vrm!I3) * (6)))</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f>VLOOKUP(analysis_by_vrm!D3, updated_mrgs!B:K, 5, False)</f>
+        <v/>
+      </c>
+      <c r="L3">
+        <f>IF(((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!K3) * (6)), (analysis_by_vrm!B3) - ((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B3) - ((analysis_by_vrm!K3) * (6)))</f>
+        <v/>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
+      </c>
+      <c r="N3">
+        <f>(analysis_by_vrm!B3) - ((analysis_by_vrm!M3) * (6))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -669,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,248 +765,142 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Vehicle Reg</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Total Parking Cost per month</t>
+          <t>Derivative</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>TGB parking cost</t>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Proposed (Scenario 1: Updated MRGs)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Equivelant MRG on AAM Contract</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Proposed (Scenario 1: Updated MRGs ex VAT)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Difference (Scenario 1: Updated MRGs)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Proposed (Scenario 2: MRG+£50)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Difference (Scenario 2: MRG+£50)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Vehicle Count</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Calculation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FG20UGP</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>148</v>
-      </c>
-      <c r="C2">
-        <f>(parking!B2) / (2)</f>
+          <t>C-HR Hybrid</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C-Hr Design Hev Cvt</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>264</v>
+      </c>
+      <c r="D2" t="n">
+        <v>476.75</v>
+      </c>
+      <c r="E2">
+        <f>updated_mrgs!D2</f>
+        <v/>
+      </c>
+      <c r="F2">
+        <f>(updated_mrgs!D2) / (1.2)</f>
+        <v/>
+      </c>
+      <c r="G2" t="n">
+        <v>212.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>314</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>(updated_mrgs!D2) * (updated_mrgs!J2)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WV69OLC</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <f>(parking!B3) / (2)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>VRM</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TGB Liability</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description </t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Total Cost (Ex VAT)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total Cost (inc VAT)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TGB Cost (Inc VAT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FG20VLU</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Inside &amp; Out + Checks</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <f>(cleaning!D2) * (1.2)</f>
-        <v/>
-      </c>
-      <c r="F2">
-        <f>(cleaning!E2) * (cleaning!B2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FG20VLK</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Inside &amp; Out + Checks</t>
-        </is>
+          <t>C-HR Hybrid</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C-Hr Dynamic Hev Cvt</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>428.75</v>
       </c>
       <c r="E3">
-        <f>(cleaning!D3) * (1.2)</f>
+        <f>updated_mrgs!D3</f>
         <v/>
       </c>
       <c r="F3">
-        <f>(cleaning!E3) * (cleaning!B3)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Vehicle ID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Booking Reference</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Vrm</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nhs Discount</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TGB earnings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+        <f>(updated_mrgs!D3) / (1.2)</f>
+        <v/>
+      </c>
+      <c r="G3" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>314</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>14545</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FX59-QP36-MT73</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>WV69OLC</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>254.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14544</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HZ93-YU64-KR64</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WV69OLN</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>231</v>
+      <c r="K3">
+        <f>(updated_mrgs!D3) * (updated_mrgs!J3)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/src/output_series.xlsx
+++ b/src/output_series.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="toyota_21_analysis" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="analysis_by_vrm" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="updated_mrgs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,113 +425,266 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Created Month</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Revenue after insurance &amp; CDW</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Toyota Revenue</t>
+          <t>time_spent</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Payment to TGB minus costs</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>50% of Parking Costs</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>50% of Ad-hoc</t>
+          <t>location</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Total Costs (50%)</t>
+          <t>demographics</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Hiyacar Net</t>
+          <t>profession</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>net per car</t>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>indebt</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>isHomeOwner</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Owns_Car</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Index_Match_Size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>If_Weight_Or_Size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Age Category</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Average Time Spent for Gender</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Interest Count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Platform Popularity</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Gender code</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Sumifs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B2" t="n">
-        <v>18820.58</v>
+        <v>56</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>11714.5</v>
-      </c>
-      <c r="D2">
-        <f>SUM(toyota_21_analysis!C2, toyota_21_analysis!E2, toyota_21_analysis!F2)</f>
-        <v/>
-      </c>
-      <c r="E2" t="n">
-        <v>-1681.94</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-1064.4</v>
-      </c>
-      <c r="G2">
-        <f>(- (toyota_21_analysis!F2)) + (- (toyota_21_analysis!E2))</f>
-        <v/>
-      </c>
-      <c r="H2">
-        <f>((toyota_21_analysis!B2) - (toyota_21_analysis!D2)) - (toyota_21_analysis!G2)</f>
-        <v/>
-      </c>
-      <c r="I2">
-        <f>(toyota_21_analysis!H2) / (51)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>19774</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>INDEX(Sheet1!B:B, MATCH(Sheet1!A2, Sheet1!A:A, 0))</f>
+        <v/>
+      </c>
+      <c r="N2">
+        <f>IF(OR((Sheet1!B2) &gt; (0), (Sheet1!C2) &gt; (0)), "Acceptable", "Check")</f>
+        <v/>
+      </c>
+      <c r="O2">
+        <f>IF((Sheet1!A2) &lt; (35), "Young", IF(AND((Sheet1!A2) &gt;= (35), (Sheet1!A2) &lt; (50)), "Middle-Aged", "Older"))</f>
+        <v/>
+      </c>
+      <c r="P2">
+        <f>AVERAGEIF(Sheet1!B:B, Sheet1!B2, Sheet1!C:C)</f>
+        <v/>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF(Sheet1!E:E, Sheet1!E2)</f>
+        <v/>
+      </c>
+      <c r="R2">
+        <f>COUNTIFS(Sheet1!B:B, "male", Sheet1!D:D, "Instagram")</f>
+        <v/>
+      </c>
+      <c r="S2">
+        <f>UPPER(IF((Sheet1!B2) = ("non-binary"), "NB", LEFT(Sheet1!B2, 1)))</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>SUMIFS(Sheet1!C:C, Sheet1!D:D, "Instagram")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44501</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9567.82</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>12837.68</v>
-      </c>
-      <c r="D3">
-        <f>SUM(toyota_21_analysis!C3, toyota_21_analysis!E3, toyota_21_analysis!F3)</f>
-        <v/>
-      </c>
-      <c r="E3" t="n">
-        <v>-1681.94</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1220.48</v>
-      </c>
-      <c r="G3">
-        <f>(- (toyota_21_analysis!F3)) + (- (toyota_21_analysis!E3))</f>
-        <v/>
-      </c>
-      <c r="H3">
-        <f>((toyota_21_analysis!B3) - (toyota_21_analysis!D3)) - (toyota_21_analysis!G3)</f>
-        <v/>
-      </c>
-      <c r="I3">
-        <f>(toyota_21_analysis!H3) / (51)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>10564</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>INDEX(Sheet1!B:B, MATCH(Sheet1!A3, Sheet1!A:A, 0))</f>
+        <v/>
+      </c>
+      <c r="N3">
+        <f>IF(OR((Sheet1!B3) &gt; (0), (Sheet1!C3) &gt; (0)), "Acceptable", "Check")</f>
+        <v/>
+      </c>
+      <c r="O3">
+        <f>IF((Sheet1!A3) &lt; (35), "Young", IF(AND((Sheet1!A3) &gt;= (35), (Sheet1!A3) &lt; (50)), "Middle-Aged", "Older"))</f>
+        <v/>
+      </c>
+      <c r="P3">
+        <f>AVERAGEIF(Sheet1!B:B, Sheet1!B3, Sheet1!C:C)</f>
+        <v/>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF(Sheet1!E:E, Sheet1!E3)</f>
+        <v/>
+      </c>
+      <c r="R3">
+        <f>COUNTIFS(Sheet1!B:B, "male", Sheet1!D:D, "Instagram")</f>
+        <v/>
+      </c>
+      <c r="S3">
+        <f>UPPER(IF((Sheet1!B3) = ("non-binary"), "NB", LEFT(Sheet1!B3, 1)))</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>SUMIFS(Sheet1!C:C, Sheet1!D:D, "Instagram")</f>
         <v/>
       </c>
     </row>
@@ -547,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,348 +710,126 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Vehicles Vrm</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Net Revenue</t>
+          <t>Movie Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Vehicles MRG</t>
+          <t>Year of Release</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Vehicles Model</t>
+          <t>Watch Time</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Bookings Driver Spend</t>
+          <t>Movie Rating</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Bookings Insurance spend</t>
+          <t>Meatscore of movie</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Bookings CDW Paid</t>
+          <t>Votes</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hiyacar Net </t>
+          <t>Gross</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>New MRG</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Hiyacar Net</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Col1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Col2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Col3</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Col4</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
+          <t>Lookup from Sheet1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>WV69OLN</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3544.51</v>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jai Bhim</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C-Hr Excel Hev Cvt</t>
-        </is>
+        <v>2021</v>
+      </c>
+      <c r="D2" t="n">
+        <v>164</v>
       </c>
       <c r="E2" t="n">
-        <v>5812.91</v>
+        <v>9.4</v>
       </c>
       <c r="F2" t="n">
-        <v>2134.45</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>235</v>
-      </c>
-      <c r="H2">
-        <f>IF(((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!C2) * (6)), (analysis_by_vrm!B2) - ((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B2) - ((analysis_by_vrm!C2) * (6)))</f>
-        <v/>
-      </c>
-      <c r="I2">
-        <f>VLOOKUP(analysis_by_vrm!D2, updated_mrgs!B:G, 3, False)</f>
-        <v/>
+        <v>180702</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>When a tribal man is arrested for a case of alleged theft, his wife turns to a human-rights lawyer to help bring justice.</t>
+        </is>
       </c>
       <c r="J2">
-        <f>IF(((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!I2) * (6)), (analysis_by_vrm!B2) - ((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B2) - ((analysis_by_vrm!I2) * (6)))</f>
-        <v/>
-      </c>
-      <c r="K2">
-        <f>VLOOKUP(analysis_by_vrm!D2, updated_mrgs!B:K, 5, False)</f>
-        <v/>
-      </c>
-      <c r="L2">
-        <f>IF(((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!K2) * (6)), (analysis_by_vrm!B2) - ((analysis_by_vrm!B2) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B2) - ((analysis_by_vrm!K2) * (6)))</f>
-        <v/>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>(analysis_by_vrm!B2) - ((analysis_by_vrm!M2) * (6))</f>
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5</v>
+        <f>IF((VALUE(Sheet2!G2)) &gt; (100000), Sheet1!B2, Sheet1!B3)</f>
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>WM19KFZ</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3489.6</v>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Soorarai Pottru</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C-Hr Dynamic Hev Cvt</t>
-        </is>
+        <v>2020</v>
+      </c>
+      <c r="D3" t="n">
+        <v>153</v>
       </c>
       <c r="E3" t="n">
-        <v>5655.61</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>2071.39</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>166</v>
-      </c>
-      <c r="H3">
-        <f>IF(((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!C3) * (6)), (analysis_by_vrm!B3) - ((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B3) - ((analysis_by_vrm!C3) * (6)))</f>
-        <v/>
-      </c>
-      <c r="I3">
-        <f>VLOOKUP(analysis_by_vrm!D3, updated_mrgs!B:G, 3, False)</f>
-        <v/>
+        <v>108490</v>
+      </c>
+      <c r="H3" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nedumaaran Rajangam "Maara" sets out to make the common man fly and in the process takes on the world's most capital intensive industry and several enemies who stand in his way.</t>
+        </is>
       </c>
       <c r="J3">
-        <f>IF(((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!I3) * (6)), (analysis_by_vrm!B3) - ((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B3) - ((analysis_by_vrm!I3) * (6)))</f>
-        <v/>
-      </c>
-      <c r="K3">
-        <f>VLOOKUP(analysis_by_vrm!D3, updated_mrgs!B:K, 5, False)</f>
-        <v/>
-      </c>
-      <c r="L3">
-        <f>IF(((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)) &gt; ((analysis_by_vrm!K3) * (6)), (analysis_by_vrm!B3) - ((analysis_by_vrm!B3) * (analysis_by_vrm!Q2)), (analysis_by_vrm!B3) - ((analysis_by_vrm!K3) * (6)))</f>
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>(analysis_by_vrm!B3) - ((analysis_by_vrm!M3) * (6))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Derivative</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Current</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Proposed (Scenario 1: Updated MRGs)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Equivelant MRG on AAM Contract</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Proposed (Scenario 1: Updated MRGs ex VAT)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Difference (Scenario 1: Updated MRGs)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Proposed (Scenario 2: MRG+£50)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Difference (Scenario 2: MRG+£50)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Vehicle Count</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Calculation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C-HR Hybrid</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>C-Hr Design Hev Cvt</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>476.75</v>
-      </c>
-      <c r="E2">
-        <f>updated_mrgs!D2</f>
-        <v/>
-      </c>
-      <c r="F2">
-        <f>(updated_mrgs!D2) / (1.2)</f>
-        <v/>
-      </c>
-      <c r="G2" t="n">
-        <v>212.75</v>
-      </c>
-      <c r="H2" t="n">
-        <v>314</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>(updated_mrgs!D2) * (updated_mrgs!J2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C-HR Hybrid</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>C-Hr Dynamic Hev Cvt</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>264</v>
-      </c>
-      <c r="D3" t="n">
-        <v>428.75</v>
-      </c>
-      <c r="E3">
-        <f>updated_mrgs!D3</f>
-        <v/>
-      </c>
-      <c r="F3">
-        <f>(updated_mrgs!D3) / (1.2)</f>
-        <v/>
-      </c>
-      <c r="G3" t="n">
-        <v>164.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>314</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>(updated_mrgs!D3) * (updated_mrgs!J3)</f>
+        <f>IF((VALUE(Sheet2!G3)) &gt; (100000), Sheet1!B2, Sheet1!B3)</f>
         <v/>
       </c>
     </row>
